--- a/municipal/ENG/Education/General Educational Institution/Imereti/Tkibuli.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Imereti/Tkibuli.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>─</t>
   </si>
   <si>
-    <t>Public and Private General Education Schools in Tkibuli</t>
-  </si>
-  <si>
     <t>(At the beginning of the school year)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   <si>
     <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
 </t>
+  </si>
+  <si>
+    <t>Public and Private General Education Schools in Tkibuli  municipality</t>
   </si>
 </sst>
 </file>
@@ -249,14 +249,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,9 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -553,21 +551,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -583,21 +581,21 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -666,7 +664,7 @@
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11">
         <v>24</v>
@@ -720,7 +718,7 @@
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12">
         <v>2748</v>
@@ -774,7 +772,7 @@
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>12</v>
@@ -827,11 +825,11 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -848,7 +846,7 @@
     </row>
     <row r="8" spans="1:26" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -884,8 +882,7 @@
       <c r="Z9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="3">
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A7:C7"/>

--- a/municipal/ENG/Education/General Educational Institution/Imereti/Tkibuli.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Imereti/Tkibuli.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\General Educational Institution\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D2889C-0DC2-46FA-B7BD-05BF890BD586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5303775-186C-42C2-B18B-CC20C00C85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19395" yWindow="720" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tkibuli" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Public and Private General Education Schools in Tkibuli  municipality</t>
   </si>
@@ -125,14 +125,20 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>number of graduates of the primary level (persons)</t>
+  </si>
+  <si>
+    <t>number of graduates of the basic level (persons)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -168,23 +174,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -205,8 +194,25 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +223,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,53 +290,53 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,516 +642,798 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>24</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>24</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>24</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>24</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>24</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>24</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <v>24</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="12">
         <v>24</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <v>24</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="12">
         <v>24</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="12">
         <v>24</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="12">
         <v>24</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="12">
         <v>24</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="12">
         <v>2748</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <v>2565</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>2539</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>2436</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>2288</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>2211</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="12">
         <v>2215</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="12">
         <v>2215</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <v>2234</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="12">
         <v>2207</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="12">
         <v>2258</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="12">
         <v>2299</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="12">
         <v>2271</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="12">
         <v>2244</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:18" ht="26.25">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="22">
+        <v>188</v>
+      </c>
+      <c r="D6" s="23">
+        <v>207</v>
+      </c>
+      <c r="E6" s="24">
+        <v>199</v>
+      </c>
+      <c r="F6" s="24">
+        <v>161</v>
+      </c>
+      <c r="G6" s="23">
+        <v>194</v>
+      </c>
+      <c r="H6" s="22">
+        <v>186</v>
+      </c>
+      <c r="I6" s="22">
+        <v>194</v>
+      </c>
+      <c r="J6" s="24">
+        <v>172</v>
+      </c>
+      <c r="K6" s="24">
+        <v>163</v>
+      </c>
+      <c r="L6" s="23">
+        <v>175</v>
+      </c>
+      <c r="M6" s="23">
+        <v>229</v>
+      </c>
+      <c r="N6" s="12">
+        <v>215</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="22">
+        <v>91</v>
+      </c>
+      <c r="D7" s="22">
+        <v>99</v>
+      </c>
+      <c r="E7" s="22">
+        <v>93</v>
+      </c>
+      <c r="F7" s="22">
+        <v>77</v>
+      </c>
+      <c r="G7" s="22">
+        <v>83</v>
+      </c>
+      <c r="H7" s="22">
+        <v>87</v>
+      </c>
+      <c r="I7" s="22">
+        <v>79</v>
+      </c>
+      <c r="J7" s="22">
+        <v>76</v>
+      </c>
+      <c r="K7" s="22">
+        <v>67</v>
+      </c>
+      <c r="L7" s="22">
+        <v>88</v>
+      </c>
+      <c r="M7" s="22">
+        <v>115</v>
+      </c>
+      <c r="N7" s="12">
+        <v>101</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="22">
+        <v>97</v>
+      </c>
+      <c r="D8" s="22">
+        <v>108</v>
+      </c>
+      <c r="E8" s="22">
+        <v>106</v>
+      </c>
+      <c r="F8" s="22">
+        <v>84</v>
+      </c>
+      <c r="G8" s="22">
+        <v>111</v>
+      </c>
+      <c r="H8" s="22">
+        <v>99</v>
+      </c>
+      <c r="I8" s="22">
+        <v>115</v>
+      </c>
+      <c r="J8" s="22">
+        <v>96</v>
+      </c>
+      <c r="K8" s="22">
+        <v>96</v>
+      </c>
+      <c r="L8" s="22">
+        <v>87</v>
+      </c>
+      <c r="M8" s="22">
+        <v>114</v>
+      </c>
+      <c r="N8" s="12">
+        <v>114</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="26.25">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22">
+        <v>258</v>
+      </c>
+      <c r="D9" s="23">
+        <v>277</v>
+      </c>
+      <c r="E9" s="24">
+        <v>208</v>
+      </c>
+      <c r="F9" s="22">
+        <v>180</v>
+      </c>
+      <c r="G9" s="24">
+        <v>180</v>
+      </c>
+      <c r="H9" s="22">
+        <v>197</v>
+      </c>
+      <c r="I9" s="22">
+        <v>152</v>
+      </c>
+      <c r="J9" s="23">
+        <v>202</v>
+      </c>
+      <c r="K9" s="24">
+        <v>188</v>
+      </c>
+      <c r="L9" s="23">
+        <v>190</v>
+      </c>
+      <c r="M9" s="23">
+        <v>170</v>
+      </c>
+      <c r="N9" s="12">
+        <v>153</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="22">
+        <v>120</v>
+      </c>
+      <c r="D10" s="22">
+        <v>133</v>
+      </c>
+      <c r="E10" s="22">
+        <v>96</v>
+      </c>
+      <c r="F10" s="22">
+        <v>86</v>
+      </c>
+      <c r="G10" s="22">
+        <v>82</v>
+      </c>
+      <c r="H10" s="22">
+        <v>94</v>
+      </c>
+      <c r="I10" s="22">
+        <v>74</v>
+      </c>
+      <c r="J10" s="22">
+        <v>87</v>
+      </c>
+      <c r="K10" s="22">
+        <v>87</v>
+      </c>
+      <c r="L10" s="22">
+        <v>78</v>
+      </c>
+      <c r="M10" s="22">
+        <v>77</v>
+      </c>
+      <c r="N10" s="12">
+        <v>65</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="22">
+        <v>138</v>
+      </c>
+      <c r="D11" s="22">
+        <v>144</v>
+      </c>
+      <c r="E11" s="22">
+        <v>112</v>
+      </c>
+      <c r="F11" s="22">
+        <v>94</v>
+      </c>
+      <c r="G11" s="22">
+        <v>98</v>
+      </c>
+      <c r="H11" s="22">
+        <v>103</v>
+      </c>
+      <c r="I11" s="22">
+        <v>78</v>
+      </c>
+      <c r="J11" s="22">
+        <v>115</v>
+      </c>
+      <c r="K11" s="22">
+        <v>101</v>
+      </c>
+      <c r="L11" s="22">
+        <v>112</v>
+      </c>
+      <c r="M11" s="22">
+        <v>93</v>
+      </c>
+      <c r="N11" s="12">
+        <v>88</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="26.25">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="22">
         <v>196</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D12" s="23">
         <v>227</v>
       </c>
-      <c r="E6" s="14">
-        <v>217</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="E12" s="24">
+        <v>216</v>
+      </c>
+      <c r="F12" s="24">
         <v>202</v>
       </c>
-      <c r="G6" s="14">
-        <v>182</v>
-      </c>
-      <c r="H6" s="14">
-        <v>165</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="G12" s="23">
+        <v>190</v>
+      </c>
+      <c r="H12" s="22">
+        <v>170</v>
+      </c>
+      <c r="I12" s="22">
         <v>144</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J12" s="24">
         <v>152</v>
       </c>
-      <c r="K6" s="14">
-        <v>165</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="K12" s="24">
+        <v>164</v>
+      </c>
+      <c r="L12" s="23">
         <v>140</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M12" s="23">
         <v>183</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N12" s="12">
         <v>168</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="O12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="22">
         <v>95</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D13" s="22">
         <v>119</v>
       </c>
-      <c r="E7" s="10">
-        <v>97</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E13" s="22">
+        <v>96</v>
+      </c>
+      <c r="F13" s="22">
         <v>94</v>
       </c>
-      <c r="G7" s="10">
-        <v>93</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G13" s="22">
+        <v>94</v>
+      </c>
+      <c r="H13" s="22">
+        <v>86</v>
+      </c>
+      <c r="I13" s="22">
+        <v>69</v>
+      </c>
+      <c r="J13" s="22">
+        <v>70</v>
+      </c>
+      <c r="K13" s="22">
+        <v>83</v>
+      </c>
+      <c r="L13" s="22">
+        <v>70</v>
+      </c>
+      <c r="M13" s="22">
+        <v>83</v>
+      </c>
+      <c r="N13" s="12">
+        <v>76</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22">
+        <v>101</v>
+      </c>
+      <c r="D14" s="22">
+        <v>108</v>
+      </c>
+      <c r="E14" s="22">
+        <v>120</v>
+      </c>
+      <c r="F14" s="22">
+        <v>108</v>
+      </c>
+      <c r="G14" s="22">
+        <v>96</v>
+      </c>
+      <c r="H14" s="22">
         <v>84</v>
       </c>
-      <c r="I7" s="10">
-        <v>69</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I14" s="22">
+        <v>75</v>
+      </c>
+      <c r="J14" s="22">
+        <v>82</v>
+      </c>
+      <c r="K14" s="22">
+        <v>81</v>
+      </c>
+      <c r="L14" s="22">
         <v>70</v>
       </c>
-      <c r="K7" s="10">
+      <c r="M14" s="22">
+        <v>100</v>
+      </c>
+      <c r="N14" s="12">
+        <v>92</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="26.25">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="25">
+        <v>88.327934770468005</v>
+      </c>
+      <c r="D15" s="25">
+        <v>108.92767165956667</v>
+      </c>
+      <c r="E15" s="25">
+        <v>88.997028753246155</v>
+      </c>
+      <c r="F15" s="25">
+        <v>101.82269300505774</v>
+      </c>
+      <c r="G15" s="25">
+        <v>101.21891760117015</v>
+      </c>
+      <c r="H15" s="25">
+        <v>99.547963337578992</v>
+      </c>
+      <c r="I15" s="25">
+        <v>105.58879173697399</v>
+      </c>
+      <c r="J15" s="25">
+        <v>106.02763430429198</v>
+      </c>
+      <c r="K15" s="25">
+        <v>106.54851955910958</v>
+      </c>
+      <c r="L15" s="25">
+        <v>109.35466902909664</v>
+      </c>
+      <c r="M15" s="25">
+        <v>137.23701465305888</v>
+      </c>
+      <c r="N15" s="25">
+        <v>9.8742212295756442</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="12">
+        <v>479</v>
+      </c>
+      <c r="I16" s="12">
+        <v>474</v>
+      </c>
+      <c r="J16" s="12">
+        <v>472</v>
+      </c>
+      <c r="K16" s="12">
+        <v>431</v>
+      </c>
+      <c r="L16" s="12">
+        <v>439</v>
+      </c>
+      <c r="M16" s="12">
+        <v>436</v>
+      </c>
+      <c r="N16" s="12">
+        <v>434</v>
+      </c>
+      <c r="O16" s="13">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="12">
+        <v>381</v>
+      </c>
+      <c r="I17" s="12">
+        <v>378</v>
+      </c>
+      <c r="J17" s="12">
+        <v>373</v>
+      </c>
+      <c r="K17" s="12">
+        <v>344</v>
+      </c>
+      <c r="L17" s="12">
+        <v>355</v>
+      </c>
+      <c r="M17" s="12">
+        <v>352</v>
+      </c>
+      <c r="N17" s="12">
+        <v>347</v>
+      </c>
+      <c r="O17" s="13">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="15">
+        <v>98</v>
+      </c>
+      <c r="I18" s="15">
+        <v>96</v>
+      </c>
+      <c r="J18" s="15">
+        <v>99</v>
+      </c>
+      <c r="K18" s="15">
+        <v>87</v>
+      </c>
+      <c r="L18" s="15">
         <v>84</v>
       </c>
-      <c r="L7" s="10">
-        <v>70</v>
-      </c>
-      <c r="M7" s="10">
-        <v>83</v>
-      </c>
-      <c r="N7" s="10">
-        <v>76</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10">
-        <v>101</v>
-      </c>
-      <c r="D8" s="10">
-        <v>108</v>
-      </c>
-      <c r="E8" s="10">
-        <v>120</v>
-      </c>
-      <c r="F8" s="10">
-        <v>108</v>
-      </c>
-      <c r="G8" s="10">
-        <v>89</v>
-      </c>
-      <c r="H8" s="10">
-        <v>81</v>
-      </c>
-      <c r="I8" s="10">
-        <v>75</v>
-      </c>
-      <c r="J8" s="10">
-        <v>82</v>
-      </c>
-      <c r="K8" s="10">
-        <v>81</v>
-      </c>
-      <c r="L8" s="10">
-        <v>70</v>
-      </c>
-      <c r="M8" s="10">
-        <v>100</v>
-      </c>
-      <c r="N8" s="10">
-        <v>92</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="26.25">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="25">
-        <v>8.5269294353084479</v>
-      </c>
-      <c r="D9" s="25">
-        <v>10.141851893220149</v>
-      </c>
-      <c r="E9" s="25">
-        <v>9.9399935871009113</v>
-      </c>
-      <c r="F9" s="25">
-        <v>9.4518400673794556</v>
-      </c>
-      <c r="G9" s="25">
-        <v>8.6840347361389458</v>
-      </c>
-      <c r="H9" s="25">
-        <v>8.0448561677230614</v>
-      </c>
-      <c r="I9" s="25">
-        <v>7.192627556754327</v>
-      </c>
-      <c r="J9" s="25">
-        <v>7.7721531932300465</v>
-      </c>
-      <c r="K9" s="25">
-        <v>8.6521066568784253</v>
-      </c>
-      <c r="L9" s="25">
-        <v>7.5642965204236008</v>
-      </c>
-      <c r="M9" s="25">
-        <v>10.132609839151739</v>
-      </c>
-      <c r="N9" s="25">
-        <v>9.8742212295756442</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="10">
-        <v>479</v>
-      </c>
-      <c r="I10" s="10">
-        <v>474</v>
-      </c>
-      <c r="J10" s="10">
-        <v>472</v>
-      </c>
-      <c r="K10" s="10">
-        <v>431</v>
-      </c>
-      <c r="L10" s="10">
-        <v>439</v>
-      </c>
-      <c r="M10" s="10">
-        <v>436</v>
-      </c>
-      <c r="N10" s="10">
-        <v>434</v>
-      </c>
-      <c r="O10" s="15">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="10">
-        <v>381</v>
-      </c>
-      <c r="I11" s="10">
-        <v>378</v>
-      </c>
-      <c r="J11" s="10">
-        <v>373</v>
-      </c>
-      <c r="K11" s="10">
-        <v>344</v>
-      </c>
-      <c r="L11" s="10">
-        <v>355</v>
-      </c>
-      <c r="M11" s="10">
-        <v>352</v>
-      </c>
-      <c r="N11" s="10">
-        <v>347</v>
-      </c>
-      <c r="O11" s="15">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19">
-        <v>98</v>
-      </c>
-      <c r="I12" s="19">
-        <v>96</v>
-      </c>
-      <c r="J12" s="19">
-        <v>99</v>
-      </c>
-      <c r="K12" s="19">
+      <c r="M18" s="15">
+        <v>84</v>
+      </c>
+      <c r="N18" s="15">
         <v>87</v>
       </c>
-      <c r="L12" s="19">
+      <c r="O18" s="14">
         <v>84</v>
       </c>
-      <c r="M12" s="19">
-        <v>84</v>
-      </c>
-      <c r="N12" s="19">
-        <v>87</v>
-      </c>
-      <c r="O12" s="18">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="23" t="s">
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/municipal/ENG/Education/General Educational Institution/Imereti/Tkibuli.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Imereti/Tkibuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5303775-186C-42C2-B18B-CC20C00C85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8275CA83-403C-4062-9C41-C7378A89E7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Public and Private General Education Schools in Tkibuli  municipality</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Number of secondary school graduates  (persons)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">    Of which:   Girl</t>
@@ -131,6 +128,26 @@
   <si>
     <t>number of graduates of the basic level (persons)</t>
   </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +225,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -279,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -324,6 +355,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -333,10 +368,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,15 +646,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" style="2" customWidth="1"/>
-    <col min="2" max="15" width="10.7109375" style="3" customWidth="1"/>
-    <col min="16" max="18" width="12" style="3" customWidth="1"/>
+    <col min="2" max="16" width="10.7109375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="12" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -642,21 +676,21 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -707,6 +741,9 @@
       <c r="O3" s="18" t="s">
         <v>15</v>
       </c>
+      <c r="P3" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -754,6 +791,9 @@
       <c r="O4" s="12">
         <v>24</v>
       </c>
+      <c r="P4" s="12">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -798,290 +838,311 @@
       <c r="N5" s="12">
         <v>2271</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="27">
         <v>2244</v>
+      </c>
+      <c r="P5" s="27">
+        <v>2221</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="26.25">
       <c r="A6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="22">
+        <v>31</v>
+      </c>
+      <c r="C6" s="19">
         <v>188</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>207</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>199</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>161</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <v>194</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <v>186</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>194</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="21">
         <v>172</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <v>163</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>175</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <v>229</v>
       </c>
       <c r="N6" s="12">
         <v>215</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
+      <c r="O6" s="12">
+        <v>195</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="22">
+        <v>31</v>
+      </c>
+      <c r="C7" s="19">
         <v>91</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>99</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>93</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>77</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <v>83</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <v>87</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>79</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="19">
         <v>76</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="19">
         <v>67</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="19">
         <v>88</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="19">
         <v>115</v>
       </c>
       <c r="N7" s="12">
         <v>101</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>19</v>
+      <c r="O7" s="12">
+        <v>98</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="22">
+        <v>31</v>
+      </c>
+      <c r="C8" s="19">
         <v>97</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>108</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>106</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>84</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>111</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>99</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>115</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <v>96</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <v>96</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="19">
         <v>87</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="19">
         <v>114</v>
       </c>
       <c r="N8" s="12">
         <v>114</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>19</v>
+      <c r="O8" s="12">
+        <v>97</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="26.25">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="22">
+        <v>31</v>
+      </c>
+      <c r="C9" s="19">
         <v>258</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>277</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>208</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>180</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <v>180</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <v>197</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>152</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <v>202</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="21">
         <v>188</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>190</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <v>170</v>
       </c>
       <c r="N9" s="12">
         <v>153</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>19</v>
+      <c r="O9" s="12">
+        <v>164</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="22">
+        <v>31</v>
+      </c>
+      <c r="C10" s="19">
         <v>120</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>133</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>96</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="19">
         <v>86</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <v>82</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="19">
         <v>94</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>74</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="19">
         <v>87</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="19">
         <v>87</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="19">
         <v>78</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="19">
         <v>77</v>
       </c>
       <c r="N10" s="12">
         <v>65</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>19</v>
+      <c r="O10" s="12">
+        <v>82</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="22">
+        <v>31</v>
+      </c>
+      <c r="C11" s="19">
         <v>138</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>144</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>112</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>94</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>98</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <v>103</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>78</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>115</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="19">
         <v>101</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="19">
         <v>112</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="19">
         <v>93</v>
       </c>
       <c r="N11" s="12">
         <v>88</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>19</v>
+      <c r="O11" s="12">
+        <v>82</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="26.25">
@@ -1089,210 +1150,222 @@
         <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="22">
+        <v>31</v>
+      </c>
+      <c r="C12" s="19">
         <v>196</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>227</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>216</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>202</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>190</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="19">
         <v>170</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <v>144</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="21">
         <v>152</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="21">
         <v>164</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>140</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>183</v>
       </c>
       <c r="N12" s="12">
         <v>168</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>19</v>
+      <c r="O12" s="12">
+        <v>179</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="22">
+        <v>31</v>
+      </c>
+      <c r="C13" s="19">
         <v>95</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>119</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>96</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <v>94</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>94</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="19">
         <v>86</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>69</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <v>70</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="19">
         <v>83</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="19">
         <v>70</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="19">
         <v>83</v>
       </c>
       <c r="N13" s="12">
         <v>76</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>19</v>
+      <c r="O13" s="12">
+        <v>75</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="22">
+        <v>31</v>
+      </c>
+      <c r="C14" s="19">
         <v>101</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>108</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>120</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>108</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>96</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>84</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>75</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <v>82</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="19">
         <v>81</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="19">
         <v>70</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="19">
         <v>100</v>
       </c>
       <c r="N14" s="12">
         <v>92</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>19</v>
+      <c r="O14" s="12">
+        <v>104</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="26.25">
       <c r="A15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="25">
+        <v>31</v>
+      </c>
+      <c r="C15" s="22">
         <v>88.327934770468005</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>108.92767165956667</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <v>88.997028753246155</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>101.82269300505774</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <v>101.21891760117015</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="22">
         <v>99.547963337578992</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <v>105.58879173697399</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="22">
         <v>106.02763430429198</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="22">
         <v>106.54851955910958</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="22">
         <v>109.35466902909664</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="22">
         <v>137.23701465305888</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="22">
         <v>9.8742212295756442</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>19</v>
+      <c r="O15" s="28">
+        <v>10.305800079747263</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H16" s="12">
         <v>479</v>
@@ -1318,28 +1391,31 @@
       <c r="O16" s="13">
         <v>430</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="P16" s="13">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H17" s="12">
         <v>381</v>
@@ -1365,28 +1441,31 @@
       <c r="O17" s="13">
         <v>346</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="P17" s="13">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H18" s="15">
         <v>98</v>
@@ -1412,22 +1491,30 @@
       <c r="O18" s="14">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="20" t="s">
+      <c r="P18" s="14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="26" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
